--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_310__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_310__Reeval_Sobol_Modell_1.3.xlsx
@@ -6118,10 +6118,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>86.74047088623047</c:v>
+                  <c:v>86.74046325683594</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.55574798583984</c:v>
+                  <c:v>65.55574035644531</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75.0704345703125</c:v>
@@ -6136,25 +6136,25 @@
                   <c:v>66.70393371582031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.37995910644531</c:v>
+                  <c:v>42.37995529174805</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>92.26451110839844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.74961090087891</c:v>
+                  <c:v>77.74961853027344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.53797149658203</c:v>
+                  <c:v>81.53797912597656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71.27389526367188</c:v>
+                  <c:v>71.27388763427734</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>64.99418640136719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.31969451904297</c:v>
+                  <c:v>93.3197021484375</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>23.86047744750977</c:v>
@@ -6172,19 +6172,19 @@
                   <c:v>48.9344482421875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>78.82126617431641</c:v>
+                  <c:v>78.82125854492188</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>78.10813140869141</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.16763305664062</c:v>
+                  <c:v>51.16762924194336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.11642074584961</c:v>
+                  <c:v>29.11642456054688</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52.58238220214844</c:v>
+                  <c:v>52.58237838745117</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>50.23577499389648</c:v>
@@ -6199,7 +6199,7 @@
                   <c:v>79.86833190917969</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>77.24805450439453</c:v>
+                  <c:v>77.24806213378906</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>78.41869354248047</c:v>
@@ -6214,19 +6214,19 @@
                   <c:v>87.17855834960938</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.25369262695312</c:v>
+                  <c:v>85.25370025634766</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>81.68917846679688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77.02069854736328</c:v>
+                  <c:v>77.02069091796875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>66.44603729248047</c:v>
+                  <c:v>66.44602966308594</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83.73203277587891</c:v>
+                  <c:v>83.73202514648438</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>75.01099395751953</c:v>
@@ -6262,7 +6262,7 @@
                   <c:v>40.94371032714844</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81.36256408691406</c:v>
+                  <c:v>81.36257171630859</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>30.93429565429688</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>55.06196594238281</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>83.73663330078125</c:v>
+                  <c:v>83.73664093017578</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>78.11187744140625</c:v>
@@ -6307,7 +6307,7 @@
                   <c:v>86.45436096191406</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>77.42205047607422</c:v>
+                  <c:v>77.42204284667969</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>40.63092041015625</c:v>
@@ -6316,25 +6316,25 @@
                   <c:v>78.646240234375</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.99985504150391</c:v>
+                  <c:v>89.99984741210938</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>90.00124359130859</c:v>
+                  <c:v>90.00122833251953</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>80.24615478515625</c:v>
+                  <c:v>80.24616241455078</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>86.53783416748047</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>55.49945068359375</c:v>
+                  <c:v>55.49944686889648</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>75.52860260009766</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>23.61457061767578</c:v>
+                  <c:v>23.61457443237305</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>85.36482238769531</c:v>
@@ -6346,7 +6346,7 @@
                   <c:v>92.30473327636719</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>25.30959892272949</c:v>
+                  <c:v>25.30960083007812</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>46.35197067260742</c:v>
@@ -6367,13 +6367,13 @@
                   <c:v>90.82658386230469</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>74.80959320068359</c:v>
+                  <c:v>74.80960083007812</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>22.19689178466797</c:v>
+                  <c:v>22.19689559936523</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>25.05031585693359</c:v>
+                  <c:v>25.05031776428223</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>91.82559967041016</c:v>
@@ -6385,7 +6385,7 @@
                   <c:v>90.21894073486328</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>55.15500640869141</c:v>
+                  <c:v>55.15501022338867</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>78.85624694824219</c:v>
@@ -6400,25 +6400,25 @@
                   <c:v>40.47969055175781</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>71.81082153320312</c:v>
+                  <c:v>71.81081390380859</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>75.32862854003906</c:v>
+                  <c:v>75.32862091064453</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>84.24436187744141</c:v>
+                  <c:v>84.24436950683594</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>23.43052673339844</c:v>
+                  <c:v>23.43052864074707</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>82.24236297607422</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>69.84903717041016</c:v>
+                  <c:v>69.84902954101562</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>82.85994720458984</c:v>
+                  <c:v>82.85993957519531</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>72.98485565185547</c:v>
@@ -7119,7 +7119,7 @@
         <v>83.8301</v>
       </c>
       <c r="F2">
-        <v>86.74047088623047</v>
+        <v>86.74046325683594</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>63.5721</v>
       </c>
       <c r="F3">
-        <v>65.55574798583984</v>
+        <v>65.55574035644531</v>
       </c>
       <c r="G3">
         <v>100</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>42.37995910644531</v>
+        <v>42.37995529174805</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>75.5044</v>
       </c>
       <c r="F10">
-        <v>77.74961090087891</v>
+        <v>77.74961853027344</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>83.4324</v>
       </c>
       <c r="F11">
-        <v>81.53797149658203</v>
+        <v>81.53797912597656</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>73.68899999999999</v>
       </c>
       <c r="F12">
-        <v>71.27389526367188</v>
+        <v>71.27388763427734</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>93.31969451904297</v>
+        <v>93.3197021484375</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7551,7 +7551,7 @@
         <v>81.3948</v>
       </c>
       <c r="F20">
-        <v>78.82126617431641</v>
+        <v>78.82125854492188</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>54.2093</v>
       </c>
       <c r="F22">
-        <v>51.16763305664062</v>
+        <v>51.16762924194336</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>29.11642074584961</v>
+        <v>29.11642456054688</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>51.853</v>
       </c>
       <c r="F24">
-        <v>52.58238220214844</v>
+        <v>52.58237838745117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>82.548</v>
       </c>
       <c r="F29">
-        <v>77.24805450439453</v>
+        <v>77.24806213378906</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>80.1123</v>
       </c>
       <c r="F34">
-        <v>85.25369262695312</v>
+        <v>85.25370025634766</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>73.6311</v>
       </c>
       <c r="F36">
-        <v>77.02069854736328</v>
+        <v>77.02069091796875</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>69.36790000000001</v>
       </c>
       <c r="F37">
-        <v>66.44603729248047</v>
+        <v>66.44602966308594</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>83.1935</v>
       </c>
       <c r="F38">
-        <v>83.73203277587891</v>
+        <v>83.73202514648438</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>81.36256408691406</v>
+        <v>81.36257171630859</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>83.73663330078125</v>
+        <v>83.73664093017578</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>76.6541</v>
       </c>
       <c r="F65">
-        <v>77.42205047607422</v>
+        <v>77.42204284667969</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>89.99985504150391</v>
+        <v>89.99984741210938</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>91.7517</v>
       </c>
       <c r="F69">
-        <v>90.00124359130859</v>
+        <v>90.00122833251953</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>80.24615478515625</v>
+        <v>80.24616241455078</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>61.5791</v>
       </c>
       <c r="F72">
-        <v>55.49945068359375</v>
+        <v>55.49944686889648</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>23.61457061767578</v>
+        <v>23.61457443237305</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>25.30959892272949</v>
+        <v>25.30960083007812</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>78.6379</v>
       </c>
       <c r="F85">
-        <v>74.80959320068359</v>
+        <v>74.80960083007812</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>22.19689178466797</v>
+        <v>22.19689559936523</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>25.05031585693359</v>
+        <v>25.05031776428223</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>55.15500640869141</v>
+        <v>55.15501022338867</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>71.81082153320312</v>
+        <v>71.81081390380859</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>80.28619999999999</v>
       </c>
       <c r="F97">
-        <v>75.32862854003906</v>
+        <v>75.32862091064453</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>84.7602</v>
       </c>
       <c r="F98">
-        <v>84.24436187744141</v>
+        <v>84.24436950683594</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>23.43052673339844</v>
+        <v>23.43052864074707</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>84.7376</v>
       </c>
       <c r="F101">
-        <v>69.84903717041016</v>
+        <v>69.84902954101562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>80.7841</v>
       </c>
       <c r="F102">
-        <v>82.85994720458984</v>
+        <v>82.85993957519531</v>
       </c>
     </row>
     <row r="103" spans="1:6">
